--- a/db.xlsx
+++ b/db.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>type</t>
   </si>
@@ -24,91 +27,139 @@
     <t>recycleable</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>wet</t>
+    <t>imagelink1</t>
+  </si>
+  <si>
+    <t>imagelink2</t>
+  </si>
+  <si>
+    <t>imagelink3</t>
+  </si>
+  <si>
+    <t>bincolor</t>
+  </si>
+  <si>
+    <t>videolink</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://media2.s-nbcnews.com/i/newscms/2019_17/1429855/banana-main-fruit-peel_a7a8c6ce60a36207efcc44ab86788d4f.jpg</t>
   </si>
   <si>
     <t>https://s1.dmcdn.net/v/3PK8S1Oy-pV6H-QxV/x1080</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>kitchen waste</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>dry</t>
+    <t>https://cdn1.sph.harvard.edu/wp-content/uploads/sites/30/2018/08/bananas-1354785_1920-1200x800.jpg</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B660d2c-RkA</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>https://primaoliva.com/wp-content/uploads/2015/11/Red-Apple-Balsamic-Vinegar.jpg</t>
   </si>
   <si>
     <t>https://image.shutterstock.com/image-photo/red-apple-missing-bite-isolated-260nw-328470947.jpg</t>
   </si>
   <si>
+    <t>https://cdn11.bigcommerce.com/s-99si0d/products/6488/images/47823/Pure-Red-Apple-flavor__78908.1461697719.350.350.jpg?c=2</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6d/Good_Food_Display_-_NCI_Visuals_Online.jpg/1200px-Good_Food_Display_-_NCI_Visuals_Online.jpg</t>
+  </si>
+  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQoLNMj1SPyyzeSXNJk8V8GSJeOdP4h2a7CI8u-iMlXOTXX46raxg</t>
   </si>
   <si>
+    <t>https://static.toiimg.com/photo/68283907.cms</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://ak5.picdn.net/shutterstock/videos/1007056105/thumb/1.jpg</t>
+  </si>
+  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ__gW1MDIXcf3AVy1IgXat1JqE8eu8Xcqg_7_j9kSz_iq992ye</t>
   </si>
   <si>
+    <t>https://www.corning.com/content/dam/corning/media/worldwide/global/images/7F--AO-Products--Glass-Powders.jpg</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6jQ7y_qQYUA</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>https://cdn2.lamag.com/wp-content/uploads/sites/6/2019/10/plastic-roads-los-angeles-syed-mahabubul-kader-eyeem-getty-1068x712.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLB_KxtJV8NKdv41uQnn4peUSu1gDS6pvC3iJDs0KC1imjOT6T </t>
   </si>
   <si>
+    <t>https://www.thelocal.fr/userdata/images/article/84fb394388fe8fc2963e863286640bcc4aa96e3b9113e442b26afadb6720422b.jpg</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>https://sp.mobee.xyz/client/w_420,h_250,q_lossy,ret_wait/https://www.conserve-energy-future.com/wp-content/uploads/2013/01/paper-recycling-e1456312951516.jpg</t>
+  </si>
+  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRaOFT1jXhoqFp25p00RMnSaOyL2jJjNKIZAKo9KTFbMyMbqTAJ</t>
   </si>
   <si>
+    <t>https://previews.123rf.com/images/juliasudnitskaya/juliasudnitskaya1503/juliasudnitskaya150300104/37241002-abstract-texture-from-sheet-of-gray-crushed-paper.jpg</t>
+  </si>
+  <si>
+    <t>Kitchen waste</t>
+  </si>
+  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0YiwZbbl0PDUemjCUF7teyHuzJ0MawG_c55brPQ4ilsyTt4iEKw</t>
-  </si>
-  <si>
-    <t>imagelink1</t>
-  </si>
-  <si>
-    <t>imagelink2</t>
-  </si>
-  <si>
-    <t>imagelink3</t>
-  </si>
-  <si>
-    <t>bincolor</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>videolink</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4JDGFNoY-rQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,29 +167,153 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,12 +322,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,37 +515,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,271 +1105,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="14.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="20.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="17.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="H4" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="F8" r:id="rId1" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0YiwZbbl0PDUemjCUF7teyHuzJ0MawG_c55brPQ4ilsyTt4iEKw"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLB_KxtJV8NKdv41uQnn4peUSu1gDS6pvC3iJDs0KC1imjOT6T "/>
+    <hyperlink ref="D2" r:id="rId3" display="https://media2.s-nbcnews.com/i/newscms/2019_17/1429855/banana-main-fruit-peel_a7a8c6ce60a36207efcc44ab86788d4f.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>